--- a/pvalue.xlsx
+++ b/pvalue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmral\PycharmProjects\FemurSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D44487E-DF30-4993-B774-EE3B2510EB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC4435-0DDE-4452-8DDA-BF0D4CA7C780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{3561B55F-3FF9-415E-85A8-0D63FE7EEF48}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -473,12 +473,13 @@
   <dimension ref="A1:BC169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV9" sqref="AV9"/>
+      <selection activeCell="AT17" sqref="AT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.3">
@@ -692,11 +693,11 @@
         <v>1.0816671848297099</v>
       </c>
       <c r="AM2" s="2">
-        <f>ROUND(_xlfn.T.TEST(A2:A43,S2:S169,2,3),2)</f>
+        <f>ROUND(_xlfn.T.TEST(A2:A43,S2:S169,2,3),8)</f>
         <v>0</v>
       </c>
       <c r="AN2" s="2">
-        <f t="shared" ref="AN2:AX2" si="0">ROUND(_xlfn.T.TEST(B2:B43,T2:T169,2,3),2)</f>
+        <f t="shared" ref="AN2:BC2" si="0">ROUND(_xlfn.T.TEST(B2:B43,T2:T169,2,3),8)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="2">
@@ -709,7 +710,7 @@
       </c>
       <c r="AQ2" s="2">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>8.2514450000000003E-2</v>
       </c>
       <c r="AR2" s="2">
         <f t="shared" si="0"/>
@@ -717,7 +718,7 @@
       </c>
       <c r="AS2" s="2">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>8.2504889999999997E-2</v>
       </c>
       <c r="AT2" s="2">
         <f t="shared" si="0"/>
@@ -740,24 +741,24 @@
         <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <f>ROUND(_xlfn.T.TEST(M2:M43,AE2:AE169,2,3),2)</f>
-        <v>0.17</v>
+        <f t="shared" si="0"/>
+        <v>0.17232410000000001</v>
       </c>
       <c r="AZ2" s="2">
-        <f t="shared" ref="AZ2" si="1">ROUND(_xlfn.T.TEST(N2:N43,AF2:AF169,2,3),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <f t="shared" ref="BA2" si="2">ROUND(_xlfn.T.TEST(O2:O43,AG2:AG169,2,3),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BB2" s="2">
-        <f t="shared" ref="BB2" si="3">ROUND(_xlfn.T.TEST(P2:P43,AH2:AH169,2,3),2)</f>
-        <v>0.49</v>
+        <f t="shared" si="0"/>
+        <v>0.48700455999999998</v>
       </c>
       <c r="BC2" s="2">
-        <f t="shared" ref="BC2" si="4">ROUND(_xlfn.T.TEST(Q2:Q43,AI2:AI169,2,3),2)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.9257099999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
@@ -1413,7 +1414,7 @@
         <v>recall</v>
       </c>
       <c r="AM8">
-        <v>0.08</v>
+        <v>8.2514450000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
@@ -1633,7 +1634,7 @@
         <v>fnr</v>
       </c>
       <c r="AM10">
-        <v>0.08</v>
+        <v>8.2504889999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
@@ -2293,7 +2294,7 @@
         <v>hd</v>
       </c>
       <c r="AM16">
-        <v>0.17</v>
+        <v>0.17232410000000001</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
@@ -2623,7 +2624,7 @@
         <v>stdsd</v>
       </c>
       <c r="AM19">
-        <v>0.49</v>
+        <v>0.48700455999999998</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
@@ -2733,7 +2734,7 @@
         <v>hd95</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>3.9257099999999998E-3</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.3">
